--- a/regionseng/5/ext.trade and foreign direct invset/ext.trade and foreign direct invset.xlsx
+++ b/regionseng/5/ext.trade and foreign direct invset/ext.trade and foreign direct invset.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -90,13 +90,13 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">  2022 *</t>
+    <t xml:space="preserve">  2024 *</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0;\-#,##0.0;\-"/>
   </numFmts>
@@ -228,13 +228,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
@@ -249,6 +242,13 @@
     </font>
     <font>
       <sz val="9"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -295,7 +295,7 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -334,13 +334,7 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -352,17 +346,29 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -672,7 +678,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P27"/>
+  <dimension ref="A1:P29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:F1"/>
@@ -709,19 +715,19 @@
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="2"/>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="D4" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="19" t="s">
+      <c r="E4" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="20" t="s">
+      <c r="F4" s="18" t="s">
         <v>6</v>
       </c>
       <c r="I4" s="9"/>
@@ -870,20 +876,20 @@
       <c r="A12" s="17">
         <v>2016</v>
       </c>
-      <c r="B12" s="22">
-        <v>9049.5328000000009</v>
-      </c>
-      <c r="C12" s="22">
-        <v>1988.2910000000018</v>
-      </c>
-      <c r="D12" s="22">
+      <c r="B12" s="20">
+        <v>9049.5326999999979</v>
+      </c>
+      <c r="C12" s="20">
+        <v>1988.2910000000004</v>
+      </c>
+      <c r="D12" s="20">
         <v>10684.164499999999</v>
       </c>
-      <c r="E12" s="22">
-        <v>9090.8917000000001</v>
-      </c>
-      <c r="F12" s="23">
-        <v>30812.880000000001</v>
+      <c r="E12" s="20">
+        <v>9090.8917999999994</v>
+      </c>
+      <c r="F12" s="21">
+        <v>30812.879999999997</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -891,19 +897,19 @@
         <v>2017</v>
       </c>
       <c r="B13" s="14">
-        <v>16787.5124</v>
+        <v>16787.512200000001</v>
       </c>
       <c r="C13" s="14">
-        <v>4924.8972000000012</v>
+        <v>4924.897100000002</v>
       </c>
       <c r="D13" s="14">
-        <v>13474.881300000001</v>
+        <v>13474.881099999999</v>
       </c>
       <c r="E13" s="14">
-        <v>3683.0564000000018</v>
+        <v>3683.0565000000024</v>
       </c>
       <c r="F13" s="15">
-        <v>38870.347300000001</v>
+        <v>38870.346900000004</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -911,19 +917,19 @@
         <v>2018</v>
       </c>
       <c r="B14" s="14">
-        <v>17398.599600000001</v>
+        <v>17398.599700000006</v>
       </c>
       <c r="C14" s="14">
-        <v>-5612.1526999999969</v>
+        <v>-5612.1526999999987</v>
       </c>
       <c r="D14" s="14">
         <v>19034.2065</v>
       </c>
       <c r="E14" s="14">
-        <v>14378.875599999994</v>
+        <v>14378.875600000003</v>
       </c>
       <c r="F14" s="15">
-        <v>45199.528999999995</v>
+        <v>45199.529100000014</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -931,19 +937,19 @@
         <v>2019</v>
       </c>
       <c r="B15" s="14">
-        <v>14014.306499999997</v>
+        <v>14014.3</v>
       </c>
       <c r="C15" s="14">
-        <v>11828.380800000003</v>
+        <v>11828.4</v>
       </c>
       <c r="D15" s="14">
-        <v>17516.6675</v>
+        <v>17516.7</v>
       </c>
       <c r="E15" s="14">
-        <v>7376.5382</v>
+        <v>7365.4</v>
       </c>
       <c r="F15" s="15">
-        <v>50735.893000000004</v>
+        <v>50724.7</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -951,19 +957,19 @@
         <v>2020</v>
       </c>
       <c r="B16" s="14">
-        <v>5895.512499999998</v>
+        <v>5958.5</v>
       </c>
       <c r="C16" s="14">
-        <v>-188.85520000000116</v>
+        <v>-130.19999999999999</v>
       </c>
       <c r="D16" s="14">
-        <v>11866.898199999998</v>
+        <v>11926.2</v>
       </c>
       <c r="E16" s="14">
-        <v>8217.6074999999983</v>
+        <v>8273.7999999999993</v>
       </c>
       <c r="F16" s="15">
-        <v>25791.162999999993</v>
+        <v>26028.3</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -971,19 +977,19 @@
         <v>2021</v>
       </c>
       <c r="B17" s="14">
-        <v>15360.679300000003</v>
+        <v>15318.2</v>
       </c>
       <c r="C17" s="14">
-        <v>8764.4462999999996</v>
+        <v>7797.8</v>
       </c>
       <c r="D17" s="14">
-        <v>15710.574699999997</v>
+        <v>15501.5</v>
       </c>
       <c r="E17" s="14">
-        <v>5704.2844000000005</v>
+        <v>5711.7</v>
       </c>
       <c r="F17" s="15">
-        <v>45539.984700000001</v>
+        <v>44329.2</v>
       </c>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
@@ -997,19 +1003,23 @@
       <c r="P17" s="3"/>
     </row>
     <row r="18" spans="1:16">
-      <c r="A18" s="17" t="s">
-        <v>14</v>
+      <c r="A18" s="17">
+        <v>2022</v>
       </c>
       <c r="B18" s="14">
-        <v>14345.569700000005</v>
+        <v>15329.5</v>
       </c>
       <c r="C18" s="14">
-        <v>-3595.1224000000011</v>
-      </c>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
+        <v>-3399.5</v>
+      </c>
+      <c r="D18" s="14">
+        <v>12317.5</v>
+      </c>
+      <c r="E18" s="14">
+        <v>-3835.5</v>
+      </c>
       <c r="F18" s="15">
-        <v>10750.447300000003</v>
+        <v>20412.099999999999</v>
       </c>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
@@ -1023,14 +1033,24 @@
       <c r="P18" s="3"/>
     </row>
     <row r="19" spans="1:16">
-      <c r="A19" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="B19" s="25"/>
-      <c r="C19" s="25"/>
-      <c r="D19" s="25"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
+      <c r="A19" s="17">
+        <v>2023</v>
+      </c>
+      <c r="B19" s="14">
+        <v>7582.8</v>
+      </c>
+      <c r="C19" s="14">
+        <v>5958.5</v>
+      </c>
+      <c r="D19" s="22">
+        <v>15350.6</v>
+      </c>
+      <c r="E19" s="23">
+        <v>-68251.7</v>
+      </c>
+      <c r="F19" s="15">
+        <v>-39359.800000000003</v>
+      </c>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
@@ -1043,66 +1063,70 @@
       <c r="P19" s="3"/>
     </row>
     <row r="20" spans="1:16">
-      <c r="A20" s="4"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
-      <c r="K20" s="6"/>
-      <c r="L20" s="6"/>
-      <c r="M20" s="5"/>
-      <c r="N20" s="5"/>
-      <c r="O20" s="7"/>
-      <c r="P20" s="7"/>
+      <c r="A20" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20" s="14">
+        <v>12191.8</v>
+      </c>
+      <c r="C20" s="14"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="15">
+        <v>12191.8</v>
+      </c>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
+      <c r="O20" s="3"/>
+      <c r="P20" s="3"/>
     </row>
     <row r="21" spans="1:16">
-      <c r="A21" s="12" t="s">
+      <c r="A21" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21" s="25"/>
+      <c r="C21" s="25"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
+      <c r="O21" s="3"/>
+      <c r="P21" s="3"/>
+    </row>
+    <row r="22" spans="1:16">
+      <c r="A22" s="4"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="6"/>
+      <c r="L22" s="6"/>
+      <c r="M22" s="5"/>
+      <c r="N22" s="5"/>
+      <c r="O22" s="7"/>
+      <c r="P22" s="7"/>
+    </row>
+    <row r="23" spans="1:16">
+      <c r="A23" s="12" t="s">
         <v>7</v>
-      </c>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
-      <c r="J21" s="4"/>
-      <c r="K21" s="4"/>
-      <c r="L21" s="4"/>
-      <c r="M21" s="4"/>
-      <c r="N21" s="4"/>
-      <c r="O21" s="4"/>
-      <c r="P21" s="4"/>
-    </row>
-    <row r="22" spans="1:16">
-      <c r="A22" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
-      <c r="J22" s="4"/>
-      <c r="K22" s="4"/>
-      <c r="L22" s="4"/>
-      <c r="M22" s="4"/>
-      <c r="N22" s="4"/>
-      <c r="O22" s="4"/>
-      <c r="P22" s="4"/>
-    </row>
-    <row r="23" spans="1:16">
-      <c r="A23" s="13" t="s">
-        <v>9</v>
       </c>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
@@ -1122,7 +1146,7 @@
     </row>
     <row r="24" spans="1:16">
       <c r="A24" s="13" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
@@ -1142,7 +1166,7 @@
     </row>
     <row r="25" spans="1:16">
       <c r="A25" s="13" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
@@ -1161,7 +1185,9 @@
       <c r="P25" s="4"/>
     </row>
     <row r="26" spans="1:16">
-      <c r="A26" s="4"/>
+      <c r="A26" s="13" t="s">
+        <v>10</v>
+      </c>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
@@ -1178,31 +1204,69 @@
       <c r="O26" s="4"/>
       <c r="P26" s="4"/>
     </row>
-    <row r="27" spans="1:16" ht="51.6" customHeight="1">
-      <c r="A27" s="26" t="s">
+    <row r="27" spans="1:16">
+      <c r="A27" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="4"/>
+      <c r="L27" s="4"/>
+      <c r="M27" s="4"/>
+      <c r="N27" s="4"/>
+      <c r="O27" s="4"/>
+      <c r="P27" s="4"/>
+    </row>
+    <row r="28" spans="1:16">
+      <c r="A28" s="4"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
+      <c r="K28" s="4"/>
+      <c r="L28" s="4"/>
+      <c r="M28" s="4"/>
+      <c r="N28" s="4"/>
+      <c r="O28" s="4"/>
+      <c r="P28" s="4"/>
+    </row>
+    <row r="29" spans="1:16" ht="51.6" customHeight="1">
+      <c r="A29" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="B27" s="27"/>
-      <c r="C27" s="27"/>
-      <c r="D27" s="27"/>
-      <c r="E27" s="27"/>
-      <c r="F27" s="27"/>
-      <c r="G27" s="21"/>
-      <c r="H27" s="21"/>
-      <c r="I27" s="21"/>
-      <c r="J27" s="21"/>
-      <c r="K27" s="21"/>
-      <c r="L27" s="21"/>
-      <c r="M27" s="21"/>
-      <c r="N27" s="21"/>
-      <c r="O27" s="21"/>
-      <c r="P27" s="21"/>
+      <c r="B29" s="27"/>
+      <c r="C29" s="27"/>
+      <c r="D29" s="27"/>
+      <c r="E29" s="27"/>
+      <c r="F29" s="27"/>
+      <c r="G29" s="19"/>
+      <c r="H29" s="19"/>
+      <c r="I29" s="19"/>
+      <c r="J29" s="19"/>
+      <c r="K29" s="19"/>
+      <c r="L29" s="19"/>
+      <c r="M29" s="19"/>
+      <c r="N29" s="19"/>
+      <c r="O29" s="19"/>
+      <c r="P29" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="A27:F27"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A29:F29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/regionseng/5/ext.trade and foreign direct invset/ext.trade and foreign direct invset.xlsx
+++ b/regionseng/5/ext.trade and foreign direct invset/ext.trade and foreign direct invset.xlsx
@@ -352,6 +352,12 @@
     <xf numFmtId="164" fontId="15" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -363,12 +369,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -687,18 +687,20 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.140625" customWidth="1"/>
-    <col min="2" max="6" width="11.85546875" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" customWidth="1"/>
+    <col min="3" max="5" width="11.85546875" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="24.6" customHeight="1">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
@@ -715,16 +717,16 @@
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="2"/>
-      <c r="B4" s="28" t="s">
+      <c r="B4" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="28" t="s">
+      <c r="C4" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="28" t="s">
+      <c r="D4" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="29" t="s">
+      <c r="E4" s="25" t="s">
         <v>5</v>
       </c>
       <c r="F4" s="18" t="s">
@@ -1069,11 +1071,13 @@
       <c r="B20" s="14">
         <v>12191.8</v>
       </c>
-      <c r="C20" s="14"/>
+      <c r="C20" s="14">
+        <v>17169.543399999999</v>
+      </c>
       <c r="D20" s="22"/>
       <c r="E20" s="23"/>
       <c r="F20" s="15">
-        <v>12191.8</v>
+        <v>29361.343399999998</v>
       </c>
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
@@ -1087,12 +1091,12 @@
       <c r="P20" s="3"/>
     </row>
     <row r="21" spans="1:16">
-      <c r="A21" s="25" t="s">
+      <c r="A21" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="B21" s="25"/>
-      <c r="C21" s="25"/>
-      <c r="D21" s="25"/>
+      <c r="B21" s="27"/>
+      <c r="C21" s="27"/>
+      <c r="D21" s="27"/>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
@@ -1243,14 +1247,14 @@
       <c r="P28" s="4"/>
     </row>
     <row r="29" spans="1:16" ht="51.6" customHeight="1">
-      <c r="A29" s="26" t="s">
+      <c r="A29" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="B29" s="27"/>
-      <c r="C29" s="27"/>
-      <c r="D29" s="27"/>
-      <c r="E29" s="27"/>
-      <c r="F29" s="27"/>
+      <c r="B29" s="29"/>
+      <c r="C29" s="29"/>
+      <c r="D29" s="29"/>
+      <c r="E29" s="29"/>
+      <c r="F29" s="29"/>
       <c r="G29" s="19"/>
       <c r="H29" s="19"/>
       <c r="I29" s="19"/>
